--- a/src/test/resources/excel/bookStoreE2E.xlsx
+++ b/src/test/resources/excel/bookStoreE2E.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -62,11 +62,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -90,21 +85,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,6 +313,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="55.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -334,13 +329,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -351,7 +346,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -362,7 +357,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/test/resources/excel/bookStoreE2E.xlsx
+++ b/src/test/resources/excel/bookStoreE2E.xlsx
@@ -28,7 +28,7 @@
     <t>Az25288@</t>
   </si>
   <si>
-    <t>Git Pocket Guide,Learning JavaScript Design Patterns,You Don't Know JS</t>
+    <t>Git Pocket Guide;Learning JavaScript Design Patterns;Speaking JavaScript</t>
   </si>
   <si>
     <t>MartinAguero</t>
@@ -37,7 +37,7 @@
     <t>MarAgu22!</t>
   </si>
   <si>
-    <t>Git Pocket Guide,You Don't Know JS</t>
+    <t>Git Pocket Guide;Understanding ECMAScript 6</t>
   </si>
   <si>
     <t>9aSanty</t>
@@ -46,7 +46,7 @@
     <t>santy56A657@!</t>
   </si>
   <si>
-    <t>You Don't Know JS</t>
+    <t>Eloquent JavaScript, Second Edition</t>
   </si>
 </sst>
 </file>
@@ -96,7 +96,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -313,9 +313,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="55.75"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -346,7 +343,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
